--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\projects\ContentManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC66A0-93A2-42B5-B577-AF59AF248DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C240CB-E4F4-4E44-A1E7-53A95560630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17865" yWindow="2250" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hui1</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>huy7</t>
+  </si>
+  <si>
+    <t>ssss</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F15"/>
+  <dimension ref="D4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -367,7 +370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>2</v>
       </c>
